--- a/results/pvalue_SIDER_all_indication_AUPR+AUROCperdrug.xlsx
+++ b/results/pvalue_SIDER_all_indication_AUPR+AUROCperdrug.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15.556</t>
+          <t>12.317</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15.346</t>
+          <t>11.985</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14.06</t>
+          <t>10.256</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11.323</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.003</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.664</t>
+          <t>6.495</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
